--- a/WEB_AUTOMATION/dataSheet/memberMaster.xlsx
+++ b/WEB_AUTOMATION/dataSheet/memberMaster.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
+    <sheet name="data (2)" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="109">
   <si>
     <t>Plant</t>
   </si>
@@ -82,13 +83,13 @@
     <t>[0101] SB1 MPP</t>
   </si>
   <si>
-    <t>Ajay</t>
-  </si>
-  <si>
-    <t>Mehra</t>
-  </si>
-  <si>
-    <t>Male</t>
+    <t>PAWNI</t>
+  </si>
+  <si>
+    <t>DEVI</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
   <si>
     <t>Sola</t>
@@ -104,6 +105,243 @@
   </si>
   <si>
     <t>Ahmadabad City</t>
+  </si>
+  <si>
+    <t>RITA</t>
+  </si>
+  <si>
+    <t>NILAM</t>
+  </si>
+  <si>
+    <t>KALPANA</t>
+  </si>
+  <si>
+    <t>SUSHMA</t>
+  </si>
+  <si>
+    <t>ARUNA</t>
+  </si>
+  <si>
+    <t>KANCHAN</t>
+  </si>
+  <si>
+    <t>KUMARI</t>
+  </si>
+  <si>
+    <t>MANI</t>
+  </si>
+  <si>
+    <t>MAMTA</t>
+  </si>
+  <si>
+    <t>RANJANA</t>
+  </si>
+  <si>
+    <t>USHA</t>
+  </si>
+  <si>
+    <t>ARTI</t>
+  </si>
+  <si>
+    <t>JULI</t>
+  </si>
+  <si>
+    <t>SINKU</t>
+  </si>
+  <si>
+    <t>PINKI</t>
+  </si>
+  <si>
+    <t>AMRITA</t>
+  </si>
+  <si>
+    <t>SINDHU</t>
+  </si>
+  <si>
+    <t>RIMJHIM</t>
+  </si>
+  <si>
+    <t>NIRMALA</t>
+  </si>
+  <si>
+    <t>KHUSHUBU</t>
+  </si>
+  <si>
+    <t>ANITA</t>
+  </si>
+  <si>
+    <t>HEERA</t>
+  </si>
+  <si>
+    <t>NEELAM</t>
+  </si>
+  <si>
+    <t>URMILA</t>
+  </si>
+  <si>
+    <t>SUNITA</t>
+  </si>
+  <si>
+    <t>SANGITA</t>
+  </si>
+  <si>
+    <t>POONAM</t>
+  </si>
+  <si>
+    <t>PRATIMA</t>
+  </si>
+  <si>
+    <t>ALAKI</t>
+  </si>
+  <si>
+    <t>RINA</t>
+  </si>
+  <si>
+    <t>GITA</t>
+  </si>
+  <si>
+    <t>SUDAMA</t>
+  </si>
+  <si>
+    <t>BHARTI</t>
+  </si>
+  <si>
+    <t>PALLAVI</t>
+  </si>
+  <si>
+    <t>SHRANLATA</t>
+  </si>
+  <si>
+    <t>RABDI</t>
+  </si>
+  <si>
+    <t>LALITA</t>
+  </si>
+  <si>
+    <t>KIRAN</t>
+  </si>
+  <si>
+    <t>BEBY</t>
+  </si>
+  <si>
+    <t>NISHA</t>
+  </si>
+  <si>
+    <t>SANJU</t>
+  </si>
+  <si>
+    <t>VIJALI</t>
+  </si>
+  <si>
+    <t>ANDAN</t>
+  </si>
+  <si>
+    <t>MANJU</t>
+  </si>
+  <si>
+    <t>SHILA</t>
+  </si>
+  <si>
+    <t>KHERIYA</t>
+  </si>
+  <si>
+    <t>DHARMA</t>
+  </si>
+  <si>
+    <t>BHUKA</t>
+  </si>
+  <si>
+    <t>GUDIYA</t>
+  </si>
+  <si>
+    <t>SARIKA</t>
+  </si>
+  <si>
+    <t>LAXMI</t>
+  </si>
+  <si>
+    <t>MANCHAN</t>
+  </si>
+  <si>
+    <t>MEENA</t>
+  </si>
+  <si>
+    <t>RANI</t>
+  </si>
+  <si>
+    <t>GIRIJA</t>
+  </si>
+  <si>
+    <t>DARUNA</t>
+  </si>
+  <si>
+    <t>SHEKHA</t>
+  </si>
+  <si>
+    <t>MUNNI</t>
+  </si>
+  <si>
+    <t>RISA</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>ANJU</t>
+  </si>
+  <si>
+    <t>PRITEE</t>
+  </si>
+  <si>
+    <t>CHANDA</t>
+  </si>
+  <si>
+    <t>MINA</t>
+  </si>
+  <si>
+    <t>Devi</t>
+  </si>
+  <si>
+    <t>DIPTI</t>
+  </si>
+  <si>
+    <t>HIRA</t>
+  </si>
+  <si>
+    <t>PARTIMA</t>
+  </si>
+  <si>
+    <t>DEEVI</t>
+  </si>
+  <si>
+    <t>ARPNA</t>
+  </si>
+  <si>
+    <t>BABY</t>
+  </si>
+  <si>
+    <t>PUJA</t>
+  </si>
+  <si>
+    <t>NITU</t>
+  </si>
+  <si>
+    <t>PUSHPLATA</t>
+  </si>
+  <si>
+    <t>BULBUL</t>
+  </si>
+  <si>
+    <t>MINTU</t>
+  </si>
+  <si>
+    <t>NAMRATA</t>
+  </si>
+  <si>
+    <t>RATNA</t>
+  </si>
+  <si>
+    <t>PRIYA</t>
   </si>
 </sst>
 </file>
@@ -111,14 +349,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,15 +373,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,9 +403,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,6 +450,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -203,34 +473,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,7 +496,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -294,13 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +552,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,109 +636,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,13 +660,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +694,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -488,26 +734,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,26 +782,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +814,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -588,13 +834,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
@@ -603,152 +843,170 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,13 +1326,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="23.4285714285714" customWidth="1"/>
@@ -1143,12 +1401,12 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
@@ -1163,14 +1421,14 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
       </c>
       <c r="H2">
-        <v>1000110002</v>
+        <v>8141991006</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
@@ -1194,11 +1452,5614 @@
         <v>29</v>
       </c>
       <c r="P2">
-        <v>1000110001</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>45292</v>
-      </c>
+        <v>8141991006</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>8141991007</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3">
+        <v>8141991007</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>8141991008</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4">
+        <v>8141991008</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>8141991009</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5">
+        <v>8141991009</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>8141991010</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6">
+        <v>8141991010</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q102"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="23.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="17.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="19.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="15.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="27.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="8.28571428571429" customWidth="1"/>
+    <col min="10" max="10" width="14.8571428571429" customWidth="1"/>
+    <col min="11" max="11" width="8.57142857142857" customWidth="1"/>
+    <col min="12" max="12" width="9.57142857142857" customWidth="1"/>
+    <col min="13" max="13" width="13.4285714285714" customWidth="1"/>
+    <col min="14" max="15" width="17.7142857142857" customWidth="1"/>
+    <col min="16" max="16" width="16.4285714285714" customWidth="1"/>
+    <col min="17" max="17" width="22.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="6">
+        <v>8141991001</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="6">
+        <v>8141991001</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="6">
+        <v>8141991002</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="6">
+        <v>8141991002</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="6">
+        <v>8141991003</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="6">
+        <v>8141991003</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="6">
+        <v>8141991004</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="6">
+        <v>8141991004</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="6">
+        <v>8141991005</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="6">
+        <v>8141991005</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>8141991006</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7">
+        <v>8141991006</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>8141991007</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8">
+        <v>8141991007</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>8141991008</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9">
+        <v>8141991008</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>8141991009</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10">
+        <v>8141991009</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>8141991010</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11">
+        <v>8141991010</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>8141991011</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12">
+        <v>8141991011</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13">
+        <v>8141991012</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13">
+        <v>8141991012</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>8141991013</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14">
+        <v>8141991013</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>8141991014</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15">
+        <v>8141991014</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>8141991015</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16">
+        <v>8141991015</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>8141991016</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17">
+        <v>8141991016</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>8141991017</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18">
+        <v>8141991017</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19">
+        <v>8141991018</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19">
+        <v>8141991018</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20">
+        <v>8141991019</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20">
+        <v>8141991019</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <v>8141991020</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21">
+        <v>8141991020</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <v>8141991021</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22">
+        <v>8141991021</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <v>8141991022</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23">
+        <v>8141991022</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <v>8141991023</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24">
+        <v>8141991023</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>8141991024</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25">
+        <v>8141991024</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>8141991025</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26">
+        <v>8141991025</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>8141991026</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27">
+        <v>8141991026</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28">
+        <v>8141991027</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28">
+        <v>8141991027</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>8141991028</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29">
+        <v>8141991028</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30">
+        <v>8141991029</v>
+      </c>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30">
+        <v>8141991029</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31">
+        <v>8141991030</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31">
+        <v>8141991030</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32">
+        <v>8141991031</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32">
+        <v>8141991031</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33">
+        <v>8141991032</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33">
+        <v>8141991032</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>8141991033</v>
+      </c>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34">
+        <v>8141991033</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <v>8141991034</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35">
+        <v>8141991034</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36">
+        <v>8141991035</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36">
+        <v>8141991035</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37">
+        <v>8141991036</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37">
+        <v>8141991036</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38">
+        <v>8141991037</v>
+      </c>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38">
+        <v>8141991037</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39">
+        <v>8141991038</v>
+      </c>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" t="s">
+        <v>28</v>
+      </c>
+      <c r="N39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39">
+        <v>8141991038</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40">
+        <v>8141991039</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40">
+        <v>8141991039</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41">
+        <v>8141991040</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" t="s">
+        <v>28</v>
+      </c>
+      <c r="N41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41">
+        <v>8141991040</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42">
+        <v>8141991041</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" t="s">
+        <v>28</v>
+      </c>
+      <c r="N42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42">
+        <v>8141991041</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43">
+        <v>8141991042</v>
+      </c>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" t="s">
+        <v>28</v>
+      </c>
+      <c r="N43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43">
+        <v>8141991042</v>
+      </c>
+      <c r="Q43" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44">
+        <v>8141991043</v>
+      </c>
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" t="s">
+        <v>28</v>
+      </c>
+      <c r="N44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44">
+        <v>8141991043</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45">
+        <v>8141991044</v>
+      </c>
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" t="s">
+        <v>28</v>
+      </c>
+      <c r="N45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45">
+        <v>8141991044</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46">
+        <v>8141991045</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" t="s">
+        <v>28</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46">
+        <v>8141991045</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47">
+        <v>8141991046</v>
+      </c>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" t="s">
+        <v>28</v>
+      </c>
+      <c r="N47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47">
+        <v>8141991046</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48">
+        <v>8141991047</v>
+      </c>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" t="s">
+        <v>28</v>
+      </c>
+      <c r="N48" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48">
+        <v>8141991047</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49">
+        <v>8141991048</v>
+      </c>
+      <c r="I49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" t="s">
+        <v>28</v>
+      </c>
+      <c r="N49" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49">
+        <v>8141991048</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50">
+        <v>8141991049</v>
+      </c>
+      <c r="I50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" t="s">
+        <v>28</v>
+      </c>
+      <c r="N50" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50">
+        <v>8141991049</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51">
+        <v>8141991050</v>
+      </c>
+      <c r="I51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" t="s">
+        <v>26</v>
+      </c>
+      <c r="L51" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" t="s">
+        <v>28</v>
+      </c>
+      <c r="N51" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51">
+        <v>8141991050</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52">
+        <v>8141991051</v>
+      </c>
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" t="s">
+        <v>28</v>
+      </c>
+      <c r="N52" t="s">
+        <v>29</v>
+      </c>
+      <c r="O52" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52">
+        <v>8141991051</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53">
+        <v>8141991052</v>
+      </c>
+      <c r="I53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" t="s">
+        <v>28</v>
+      </c>
+      <c r="N53" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53">
+        <v>8141991052</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54">
+        <v>8141991053</v>
+      </c>
+      <c r="I54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" t="s">
+        <v>26</v>
+      </c>
+      <c r="L54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" t="s">
+        <v>28</v>
+      </c>
+      <c r="N54" t="s">
+        <v>29</v>
+      </c>
+      <c r="O54" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54">
+        <v>8141991053</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55">
+        <v>8141991054</v>
+      </c>
+      <c r="I55" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" t="s">
+        <v>28</v>
+      </c>
+      <c r="N55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O55" t="s">
+        <v>29</v>
+      </c>
+      <c r="P55">
+        <v>8141991054</v>
+      </c>
+      <c r="Q55" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56">
+        <v>8141991055</v>
+      </c>
+      <c r="I56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" t="s">
+        <v>28</v>
+      </c>
+      <c r="N56" t="s">
+        <v>29</v>
+      </c>
+      <c r="O56" t="s">
+        <v>29</v>
+      </c>
+      <c r="P56">
+        <v>8141991055</v>
+      </c>
+      <c r="Q56" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57">
+        <v>8141991056</v>
+      </c>
+      <c r="I57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" t="s">
+        <v>27</v>
+      </c>
+      <c r="M57" t="s">
+        <v>28</v>
+      </c>
+      <c r="N57" t="s">
+        <v>29</v>
+      </c>
+      <c r="O57" t="s">
+        <v>29</v>
+      </c>
+      <c r="P57">
+        <v>8141991056</v>
+      </c>
+      <c r="Q57" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58">
+        <v>8141991057</v>
+      </c>
+      <c r="I58" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N58" t="s">
+        <v>29</v>
+      </c>
+      <c r="O58" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58">
+        <v>8141991057</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59">
+        <v>8141991058</v>
+      </c>
+      <c r="I59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" t="s">
+        <v>28</v>
+      </c>
+      <c r="N59" t="s">
+        <v>29</v>
+      </c>
+      <c r="O59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59">
+        <v>8141991058</v>
+      </c>
+      <c r="Q59" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G60" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60">
+        <v>8141991059</v>
+      </c>
+      <c r="I60" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60" t="s">
+        <v>28</v>
+      </c>
+      <c r="N60" t="s">
+        <v>29</v>
+      </c>
+      <c r="O60" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60">
+        <v>8141991059</v>
+      </c>
+      <c r="Q60" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61">
+        <v>8141991060</v>
+      </c>
+      <c r="I61" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" t="s">
+        <v>27</v>
+      </c>
+      <c r="M61" t="s">
+        <v>28</v>
+      </c>
+      <c r="N61" t="s">
+        <v>29</v>
+      </c>
+      <c r="O61" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61">
+        <v>8141991060</v>
+      </c>
+      <c r="Q61" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62">
+        <v>8141991061</v>
+      </c>
+      <c r="I62" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" t="s">
+        <v>27</v>
+      </c>
+      <c r="M62" t="s">
+        <v>28</v>
+      </c>
+      <c r="N62" t="s">
+        <v>29</v>
+      </c>
+      <c r="O62" t="s">
+        <v>29</v>
+      </c>
+      <c r="P62">
+        <v>8141991061</v>
+      </c>
+      <c r="Q62" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63">
+        <v>8141991062</v>
+      </c>
+      <c r="I63" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63" t="s">
+        <v>27</v>
+      </c>
+      <c r="M63" t="s">
+        <v>28</v>
+      </c>
+      <c r="N63" t="s">
+        <v>29</v>
+      </c>
+      <c r="O63" t="s">
+        <v>29</v>
+      </c>
+      <c r="P63">
+        <v>8141991062</v>
+      </c>
+      <c r="Q63" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G64" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64">
+        <v>8141991063</v>
+      </c>
+      <c r="I64" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64" t="s">
+        <v>27</v>
+      </c>
+      <c r="M64" t="s">
+        <v>28</v>
+      </c>
+      <c r="N64" t="s">
+        <v>29</v>
+      </c>
+      <c r="O64" t="s">
+        <v>29</v>
+      </c>
+      <c r="P64">
+        <v>8141991063</v>
+      </c>
+      <c r="Q64" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G65" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65">
+        <v>8141991064</v>
+      </c>
+      <c r="I65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" t="s">
+        <v>25</v>
+      </c>
+      <c r="K65" t="s">
+        <v>26</v>
+      </c>
+      <c r="L65" t="s">
+        <v>27</v>
+      </c>
+      <c r="M65" t="s">
+        <v>28</v>
+      </c>
+      <c r="N65" t="s">
+        <v>29</v>
+      </c>
+      <c r="O65" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65">
+        <v>8141991064</v>
+      </c>
+      <c r="Q65" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66">
+        <v>8141991065</v>
+      </c>
+      <c r="I66" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" t="s">
+        <v>26</v>
+      </c>
+      <c r="L66" t="s">
+        <v>27</v>
+      </c>
+      <c r="M66" t="s">
+        <v>28</v>
+      </c>
+      <c r="N66" t="s">
+        <v>29</v>
+      </c>
+      <c r="O66" t="s">
+        <v>29</v>
+      </c>
+      <c r="P66">
+        <v>8141991065</v>
+      </c>
+      <c r="Q66" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67">
+        <v>8141991066</v>
+      </c>
+      <c r="I67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" t="s">
+        <v>26</v>
+      </c>
+      <c r="L67" t="s">
+        <v>27</v>
+      </c>
+      <c r="M67" t="s">
+        <v>28</v>
+      </c>
+      <c r="N67" t="s">
+        <v>29</v>
+      </c>
+      <c r="O67" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67">
+        <v>8141991066</v>
+      </c>
+      <c r="Q67" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68">
+        <v>8141991067</v>
+      </c>
+      <c r="I68" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" t="s">
+        <v>26</v>
+      </c>
+      <c r="L68" t="s">
+        <v>27</v>
+      </c>
+      <c r="M68" t="s">
+        <v>28</v>
+      </c>
+      <c r="N68" t="s">
+        <v>29</v>
+      </c>
+      <c r="O68" t="s">
+        <v>29</v>
+      </c>
+      <c r="P68">
+        <v>8141991067</v>
+      </c>
+      <c r="Q68" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G69" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69">
+        <v>8141991068</v>
+      </c>
+      <c r="I69" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" t="s">
+        <v>26</v>
+      </c>
+      <c r="L69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M69" t="s">
+        <v>28</v>
+      </c>
+      <c r="N69" t="s">
+        <v>29</v>
+      </c>
+      <c r="O69" t="s">
+        <v>29</v>
+      </c>
+      <c r="P69">
+        <v>8141991068</v>
+      </c>
+      <c r="Q69" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70">
+        <v>8141991069</v>
+      </c>
+      <c r="I70" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70" t="s">
+        <v>26</v>
+      </c>
+      <c r="L70" t="s">
+        <v>27</v>
+      </c>
+      <c r="M70" t="s">
+        <v>28</v>
+      </c>
+      <c r="N70" t="s">
+        <v>29</v>
+      </c>
+      <c r="O70" t="s">
+        <v>29</v>
+      </c>
+      <c r="P70">
+        <v>8141991069</v>
+      </c>
+      <c r="Q70" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71">
+        <v>8141991070</v>
+      </c>
+      <c r="I71" t="s">
+        <v>24</v>
+      </c>
+      <c r="J71" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" t="s">
+        <v>26</v>
+      </c>
+      <c r="L71" t="s">
+        <v>27</v>
+      </c>
+      <c r="M71" t="s">
+        <v>28</v>
+      </c>
+      <c r="N71" t="s">
+        <v>29</v>
+      </c>
+      <c r="O71" t="s">
+        <v>29</v>
+      </c>
+      <c r="P71">
+        <v>8141991070</v>
+      </c>
+      <c r="Q71" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G72" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72">
+        <v>8141991071</v>
+      </c>
+      <c r="I72" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" t="s">
+        <v>26</v>
+      </c>
+      <c r="L72" t="s">
+        <v>27</v>
+      </c>
+      <c r="M72" t="s">
+        <v>28</v>
+      </c>
+      <c r="N72" t="s">
+        <v>29</v>
+      </c>
+      <c r="O72" t="s">
+        <v>29</v>
+      </c>
+      <c r="P72">
+        <v>8141991071</v>
+      </c>
+      <c r="Q72" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G73" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73">
+        <v>8141991072</v>
+      </c>
+      <c r="I73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" t="s">
+        <v>26</v>
+      </c>
+      <c r="L73" t="s">
+        <v>27</v>
+      </c>
+      <c r="M73" t="s">
+        <v>28</v>
+      </c>
+      <c r="N73" t="s">
+        <v>29</v>
+      </c>
+      <c r="O73" t="s">
+        <v>29</v>
+      </c>
+      <c r="P73">
+        <v>8141991072</v>
+      </c>
+      <c r="Q73" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74">
+        <v>8141991073</v>
+      </c>
+      <c r="I74" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" t="s">
+        <v>26</v>
+      </c>
+      <c r="L74" t="s">
+        <v>27</v>
+      </c>
+      <c r="M74" t="s">
+        <v>28</v>
+      </c>
+      <c r="N74" t="s">
+        <v>29</v>
+      </c>
+      <c r="O74" t="s">
+        <v>29</v>
+      </c>
+      <c r="P74">
+        <v>8141991073</v>
+      </c>
+      <c r="Q74" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75">
+        <v>8141991074</v>
+      </c>
+      <c r="I75" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" t="s">
+        <v>25</v>
+      </c>
+      <c r="K75" t="s">
+        <v>26</v>
+      </c>
+      <c r="L75" t="s">
+        <v>27</v>
+      </c>
+      <c r="M75" t="s">
+        <v>28</v>
+      </c>
+      <c r="N75" t="s">
+        <v>29</v>
+      </c>
+      <c r="O75" t="s">
+        <v>29</v>
+      </c>
+      <c r="P75">
+        <v>8141991074</v>
+      </c>
+      <c r="Q75" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G76" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76">
+        <v>8141991075</v>
+      </c>
+      <c r="I76" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" t="s">
+        <v>25</v>
+      </c>
+      <c r="K76" t="s">
+        <v>26</v>
+      </c>
+      <c r="L76" t="s">
+        <v>27</v>
+      </c>
+      <c r="M76" t="s">
+        <v>28</v>
+      </c>
+      <c r="N76" t="s">
+        <v>29</v>
+      </c>
+      <c r="O76" t="s">
+        <v>29</v>
+      </c>
+      <c r="P76">
+        <v>8141991075</v>
+      </c>
+      <c r="Q76" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77">
+        <v>8141991076</v>
+      </c>
+      <c r="I77" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" t="s">
+        <v>26</v>
+      </c>
+      <c r="L77" t="s">
+        <v>27</v>
+      </c>
+      <c r="M77" t="s">
+        <v>28</v>
+      </c>
+      <c r="N77" t="s">
+        <v>29</v>
+      </c>
+      <c r="O77" t="s">
+        <v>29</v>
+      </c>
+      <c r="P77">
+        <v>8141991076</v>
+      </c>
+      <c r="Q77" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G78" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78">
+        <v>8141991077</v>
+      </c>
+      <c r="I78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78" t="s">
+        <v>25</v>
+      </c>
+      <c r="K78" t="s">
+        <v>26</v>
+      </c>
+      <c r="L78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M78" t="s">
+        <v>28</v>
+      </c>
+      <c r="N78" t="s">
+        <v>29</v>
+      </c>
+      <c r="O78" t="s">
+        <v>29</v>
+      </c>
+      <c r="P78">
+        <v>8141991077</v>
+      </c>
+      <c r="Q78" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G79" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79">
+        <v>8141991078</v>
+      </c>
+      <c r="I79" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" t="s">
+        <v>26</v>
+      </c>
+      <c r="L79" t="s">
+        <v>27</v>
+      </c>
+      <c r="M79" t="s">
+        <v>28</v>
+      </c>
+      <c r="N79" t="s">
+        <v>29</v>
+      </c>
+      <c r="O79" t="s">
+        <v>29</v>
+      </c>
+      <c r="P79">
+        <v>8141991078</v>
+      </c>
+      <c r="Q79" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G80" t="s">
+        <v>94</v>
+      </c>
+      <c r="H80">
+        <v>8141991079</v>
+      </c>
+      <c r="I80" t="s">
+        <v>24</v>
+      </c>
+      <c r="J80" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" t="s">
+        <v>26</v>
+      </c>
+      <c r="L80" t="s">
+        <v>27</v>
+      </c>
+      <c r="M80" t="s">
+        <v>28</v>
+      </c>
+      <c r="N80" t="s">
+        <v>29</v>
+      </c>
+      <c r="O80" t="s">
+        <v>29</v>
+      </c>
+      <c r="P80">
+        <v>8141991079</v>
+      </c>
+      <c r="Q80" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81">
+        <v>8141991080</v>
+      </c>
+      <c r="I81" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81" t="s">
+        <v>26</v>
+      </c>
+      <c r="L81" t="s">
+        <v>27</v>
+      </c>
+      <c r="M81" t="s">
+        <v>28</v>
+      </c>
+      <c r="N81" t="s">
+        <v>29</v>
+      </c>
+      <c r="O81" t="s">
+        <v>29</v>
+      </c>
+      <c r="P81">
+        <v>8141991080</v>
+      </c>
+      <c r="Q81" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G82" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82">
+        <v>8141991081</v>
+      </c>
+      <c r="I82" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" t="s">
+        <v>25</v>
+      </c>
+      <c r="K82" t="s">
+        <v>26</v>
+      </c>
+      <c r="L82" t="s">
+        <v>27</v>
+      </c>
+      <c r="M82" t="s">
+        <v>28</v>
+      </c>
+      <c r="N82" t="s">
+        <v>29</v>
+      </c>
+      <c r="O82" t="s">
+        <v>29</v>
+      </c>
+      <c r="P82">
+        <v>8141991081</v>
+      </c>
+      <c r="Q82" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G83" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83">
+        <v>8141991082</v>
+      </c>
+      <c r="I83" t="s">
+        <v>24</v>
+      </c>
+      <c r="J83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K83" t="s">
+        <v>26</v>
+      </c>
+      <c r="L83" t="s">
+        <v>27</v>
+      </c>
+      <c r="M83" t="s">
+        <v>28</v>
+      </c>
+      <c r="N83" t="s">
+        <v>29</v>
+      </c>
+      <c r="O83" t="s">
+        <v>29</v>
+      </c>
+      <c r="P83">
+        <v>8141991082</v>
+      </c>
+      <c r="Q83" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G84" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84">
+        <v>8141991083</v>
+      </c>
+      <c r="I84" t="s">
+        <v>24</v>
+      </c>
+      <c r="J84" t="s">
+        <v>25</v>
+      </c>
+      <c r="K84" t="s">
+        <v>26</v>
+      </c>
+      <c r="L84" t="s">
+        <v>27</v>
+      </c>
+      <c r="M84" t="s">
+        <v>28</v>
+      </c>
+      <c r="N84" t="s">
+        <v>29</v>
+      </c>
+      <c r="O84" t="s">
+        <v>29</v>
+      </c>
+      <c r="P84">
+        <v>8141991083</v>
+      </c>
+      <c r="Q84" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G85" t="s">
+        <v>98</v>
+      </c>
+      <c r="H85">
+        <v>8141991084</v>
+      </c>
+      <c r="I85" t="s">
+        <v>24</v>
+      </c>
+      <c r="J85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85" t="s">
+        <v>26</v>
+      </c>
+      <c r="L85" t="s">
+        <v>27</v>
+      </c>
+      <c r="M85" t="s">
+        <v>28</v>
+      </c>
+      <c r="N85" t="s">
+        <v>29</v>
+      </c>
+      <c r="O85" t="s">
+        <v>29</v>
+      </c>
+      <c r="P85">
+        <v>8141991084</v>
+      </c>
+      <c r="Q85" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86">
+        <v>8141991085</v>
+      </c>
+      <c r="I86" t="s">
+        <v>24</v>
+      </c>
+      <c r="J86" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86" t="s">
+        <v>26</v>
+      </c>
+      <c r="L86" t="s">
+        <v>27</v>
+      </c>
+      <c r="M86" t="s">
+        <v>28</v>
+      </c>
+      <c r="N86" t="s">
+        <v>29</v>
+      </c>
+      <c r="O86" t="s">
+        <v>29</v>
+      </c>
+      <c r="P86">
+        <v>8141991085</v>
+      </c>
+      <c r="Q86" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G87" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87">
+        <v>8141991086</v>
+      </c>
+      <c r="I87" t="s">
+        <v>24</v>
+      </c>
+      <c r="J87" t="s">
+        <v>25</v>
+      </c>
+      <c r="K87" t="s">
+        <v>26</v>
+      </c>
+      <c r="L87" t="s">
+        <v>27</v>
+      </c>
+      <c r="M87" t="s">
+        <v>28</v>
+      </c>
+      <c r="N87" t="s">
+        <v>29</v>
+      </c>
+      <c r="O87" t="s">
+        <v>29</v>
+      </c>
+      <c r="P87">
+        <v>8141991086</v>
+      </c>
+      <c r="Q87" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88">
+        <v>8141991087</v>
+      </c>
+      <c r="I88" t="s">
+        <v>24</v>
+      </c>
+      <c r="J88" t="s">
+        <v>25</v>
+      </c>
+      <c r="K88" t="s">
+        <v>26</v>
+      </c>
+      <c r="L88" t="s">
+        <v>27</v>
+      </c>
+      <c r="M88" t="s">
+        <v>28</v>
+      </c>
+      <c r="N88" t="s">
+        <v>29</v>
+      </c>
+      <c r="O88" t="s">
+        <v>29</v>
+      </c>
+      <c r="P88">
+        <v>8141991087</v>
+      </c>
+      <c r="Q88" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89">
+        <v>8141991088</v>
+      </c>
+      <c r="I89" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" t="s">
+        <v>25</v>
+      </c>
+      <c r="K89" t="s">
+        <v>26</v>
+      </c>
+      <c r="L89" t="s">
+        <v>27</v>
+      </c>
+      <c r="M89" t="s">
+        <v>28</v>
+      </c>
+      <c r="N89" t="s">
+        <v>29</v>
+      </c>
+      <c r="O89" t="s">
+        <v>29</v>
+      </c>
+      <c r="P89">
+        <v>8141991088</v>
+      </c>
+      <c r="Q89" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90">
+        <v>8141991089</v>
+      </c>
+      <c r="I90" t="s">
+        <v>24</v>
+      </c>
+      <c r="J90" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" t="s">
+        <v>26</v>
+      </c>
+      <c r="L90" t="s">
+        <v>27</v>
+      </c>
+      <c r="M90" t="s">
+        <v>28</v>
+      </c>
+      <c r="N90" t="s">
+        <v>29</v>
+      </c>
+      <c r="O90" t="s">
+        <v>29</v>
+      </c>
+      <c r="P90">
+        <v>8141991089</v>
+      </c>
+      <c r="Q90" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G91" t="s">
+        <v>23</v>
+      </c>
+      <c r="H91">
+        <v>8141991090</v>
+      </c>
+      <c r="I91" t="s">
+        <v>24</v>
+      </c>
+      <c r="J91" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" t="s">
+        <v>26</v>
+      </c>
+      <c r="L91" t="s">
+        <v>27</v>
+      </c>
+      <c r="M91" t="s">
+        <v>28</v>
+      </c>
+      <c r="N91" t="s">
+        <v>29</v>
+      </c>
+      <c r="O91" t="s">
+        <v>29</v>
+      </c>
+      <c r="P91">
+        <v>8141991090</v>
+      </c>
+      <c r="Q91" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G92" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92">
+        <v>8141991091</v>
+      </c>
+      <c r="I92" t="s">
+        <v>24</v>
+      </c>
+      <c r="J92" t="s">
+        <v>25</v>
+      </c>
+      <c r="K92" t="s">
+        <v>26</v>
+      </c>
+      <c r="L92" t="s">
+        <v>27</v>
+      </c>
+      <c r="M92" t="s">
+        <v>28</v>
+      </c>
+      <c r="N92" t="s">
+        <v>29</v>
+      </c>
+      <c r="O92" t="s">
+        <v>29</v>
+      </c>
+      <c r="P92">
+        <v>8141991091</v>
+      </c>
+      <c r="Q92" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93">
+        <v>8141991092</v>
+      </c>
+      <c r="I93" t="s">
+        <v>24</v>
+      </c>
+      <c r="J93" t="s">
+        <v>25</v>
+      </c>
+      <c r="K93" t="s">
+        <v>26</v>
+      </c>
+      <c r="L93" t="s">
+        <v>27</v>
+      </c>
+      <c r="M93" t="s">
+        <v>28</v>
+      </c>
+      <c r="N93" t="s">
+        <v>29</v>
+      </c>
+      <c r="O93" t="s">
+        <v>29</v>
+      </c>
+      <c r="P93">
+        <v>8141991092</v>
+      </c>
+      <c r="Q93" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" t="s">
+        <v>23</v>
+      </c>
+      <c r="H94">
+        <v>8141991093</v>
+      </c>
+      <c r="I94" t="s">
+        <v>24</v>
+      </c>
+      <c r="J94" t="s">
+        <v>25</v>
+      </c>
+      <c r="K94" t="s">
+        <v>26</v>
+      </c>
+      <c r="L94" t="s">
+        <v>27</v>
+      </c>
+      <c r="M94" t="s">
+        <v>28</v>
+      </c>
+      <c r="N94" t="s">
+        <v>29</v>
+      </c>
+      <c r="O94" t="s">
+        <v>29</v>
+      </c>
+      <c r="P94">
+        <v>8141991093</v>
+      </c>
+      <c r="Q94" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G95" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95">
+        <v>8141991094</v>
+      </c>
+      <c r="I95" t="s">
+        <v>24</v>
+      </c>
+      <c r="J95" t="s">
+        <v>25</v>
+      </c>
+      <c r="K95" t="s">
+        <v>26</v>
+      </c>
+      <c r="L95" t="s">
+        <v>27</v>
+      </c>
+      <c r="M95" t="s">
+        <v>28</v>
+      </c>
+      <c r="N95" t="s">
+        <v>29</v>
+      </c>
+      <c r="O95" t="s">
+        <v>29</v>
+      </c>
+      <c r="P95">
+        <v>8141991094</v>
+      </c>
+      <c r="Q95" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G96" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96">
+        <v>8141991095</v>
+      </c>
+      <c r="I96" t="s">
+        <v>24</v>
+      </c>
+      <c r="J96" t="s">
+        <v>25</v>
+      </c>
+      <c r="K96" t="s">
+        <v>26</v>
+      </c>
+      <c r="L96" t="s">
+        <v>27</v>
+      </c>
+      <c r="M96" t="s">
+        <v>28</v>
+      </c>
+      <c r="N96" t="s">
+        <v>29</v>
+      </c>
+      <c r="O96" t="s">
+        <v>29</v>
+      </c>
+      <c r="P96">
+        <v>8141991095</v>
+      </c>
+      <c r="Q96" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G97" t="s">
+        <v>23</v>
+      </c>
+      <c r="H97">
+        <v>8141991096</v>
+      </c>
+      <c r="I97" t="s">
+        <v>24</v>
+      </c>
+      <c r="J97" t="s">
+        <v>25</v>
+      </c>
+      <c r="K97" t="s">
+        <v>26</v>
+      </c>
+      <c r="L97" t="s">
+        <v>27</v>
+      </c>
+      <c r="M97" t="s">
+        <v>28</v>
+      </c>
+      <c r="N97" t="s">
+        <v>29</v>
+      </c>
+      <c r="O97" t="s">
+        <v>29</v>
+      </c>
+      <c r="P97">
+        <v>8141991096</v>
+      </c>
+      <c r="Q97" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G98" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98">
+        <v>8141991097</v>
+      </c>
+      <c r="I98" t="s">
+        <v>24</v>
+      </c>
+      <c r="J98" t="s">
+        <v>25</v>
+      </c>
+      <c r="K98" t="s">
+        <v>26</v>
+      </c>
+      <c r="L98" t="s">
+        <v>27</v>
+      </c>
+      <c r="M98" t="s">
+        <v>28</v>
+      </c>
+      <c r="N98" t="s">
+        <v>29</v>
+      </c>
+      <c r="O98" t="s">
+        <v>29</v>
+      </c>
+      <c r="P98">
+        <v>8141991097</v>
+      </c>
+      <c r="Q98" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G99" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99">
+        <v>8141991098</v>
+      </c>
+      <c r="I99" t="s">
+        <v>24</v>
+      </c>
+      <c r="J99" t="s">
+        <v>25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>26</v>
+      </c>
+      <c r="L99" t="s">
+        <v>27</v>
+      </c>
+      <c r="M99" t="s">
+        <v>28</v>
+      </c>
+      <c r="N99" t="s">
+        <v>29</v>
+      </c>
+      <c r="O99" t="s">
+        <v>29</v>
+      </c>
+      <c r="P99">
+        <v>8141991098</v>
+      </c>
+      <c r="Q99" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G100" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100">
+        <v>8141991099</v>
+      </c>
+      <c r="I100" t="s">
+        <v>24</v>
+      </c>
+      <c r="J100" t="s">
+        <v>25</v>
+      </c>
+      <c r="K100" t="s">
+        <v>26</v>
+      </c>
+      <c r="L100" t="s">
+        <v>27</v>
+      </c>
+      <c r="M100" t="s">
+        <v>28</v>
+      </c>
+      <c r="N100" t="s">
+        <v>29</v>
+      </c>
+      <c r="O100" t="s">
+        <v>29</v>
+      </c>
+      <c r="P100">
+        <v>8141991099</v>
+      </c>
+      <c r="Q100" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G101" t="s">
+        <v>108</v>
+      </c>
+      <c r="H101">
+        <v>8141991100</v>
+      </c>
+      <c r="I101" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101" t="s">
+        <v>25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>26</v>
+      </c>
+      <c r="L101" t="s">
+        <v>27</v>
+      </c>
+      <c r="M101" t="s">
+        <v>28</v>
+      </c>
+      <c r="N101" t="s">
+        <v>29</v>
+      </c>
+      <c r="O101" t="s">
+        <v>29</v>
+      </c>
+      <c r="P101">
+        <v>8141991100</v>
+      </c>
+      <c r="Q101" s="10">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6">
+      <c r="F102" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
